--- a/data/transactions_excel.xlsx
+++ b/data/transactions_excel.xlsx
@@ -9139,7 +9139,7 @@
   <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R8" activeCellId="1" sqref="A3:I1001 R8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="A8:I1001 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3515625" defaultRowHeight="19.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9148,9 +9148,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="30.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="30.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="1" width="8.35"/>
   </cols>
